--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB9C4C1-E0ED-426C-B27A-C5DBD60F0339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B98CFC0-B71D-4E35-B0EC-7570ED723F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1227,6 +1227,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1278,9 +1281,6 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -1297,6 +1297,36 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="86">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1549,6 +1579,36 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -1792,6 +1852,121 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2244,181 +2419,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2779,9 +2779,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
-          <xdr:colOff>228598</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>2721</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>240030</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2932,7 +2932,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G18" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G18" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B9:G18" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2942,12 +2942,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="66" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="65" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="37" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="36" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2959,7 +2959,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2969,9 +2969,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Days" dataCellStyle="Comma [0]"/>
@@ -2986,7 +2986,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2996,9 +2996,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
@@ -3295,11 +3295,11 @@
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7"/>
       <c r="B2" s="131"/>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="131"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3327,11 +3327,11 @@
     <row r="4" spans="1:13" s="8" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7"/>
       <c r="B4" s="126"/>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="126"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3344,11 +3344,11 @@
     <row r="5" spans="1:13" s="8" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7"/>
       <c r="B5" s="126"/>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="126"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3450,8 +3450,8 @@
   </sheetPr>
   <dimension ref="A1:BP28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3472,27 +3472,27 @@
     <row r="1" spans="1:68" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="150"/>
       <c r="U2" s="76"/>
       <c r="V2" s="76"/>
       <c r="W2" s="76"/>
@@ -3619,40 +3619,40 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="150" t="s">
+      <c r="I4" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="151" t="s">
+      <c r="N4" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="152" t="s">
+      <c r="S4" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
+      <c r="T4" s="153"/>
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
       <c r="W4" s="99"/>
-      <c r="X4" s="145" t="s">
+      <c r="X4" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="145"/>
-      <c r="Z4" s="145"/>
-      <c r="AA4" s="145"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="146"/>
+      <c r="AA4" s="146"/>
       <c r="AB4" s="99"/>
-      <c r="AC4" s="146" t="s">
+      <c r="AC4" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="146"/>
-      <c r="AE4" s="146"/>
-      <c r="AF4" s="146"/>
+      <c r="AD4" s="147"/>
+      <c r="AE4" s="147"/>
+      <c r="AF4" s="147"/>
       <c r="AG4" s="99"/>
       <c r="AH4" s="99"/>
       <c r="AI4" s="99"/>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="C6" s="90" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones4352[Start])=0,TODAY(),B11(Milestones4352[Start])),TODAY())</f>
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="84"/>
@@ -3782,7 +3782,7 @@
       <c r="O6" s="109"/>
       <c r="P6" s="109" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v/>
+        <v>May</v>
       </c>
       <c r="Q6" s="109"/>
       <c r="R6" s="109"/>
@@ -3792,7 +3792,7 @@
       <c r="V6" s="109"/>
       <c r="W6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v>May</v>
+        <v/>
       </c>
       <c r="X6" s="109"/>
       <c r="Y6" s="109"/>
@@ -3822,7 +3822,7 @@
       <c r="AQ6" s="109"/>
       <c r="AR6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v/>
+        <v>June</v>
       </c>
       <c r="AS6" s="109"/>
       <c r="AT6" s="109"/>
@@ -3832,7 +3832,7 @@
       <c r="AX6" s="110"/>
       <c r="AY6" s="110" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>June</v>
+        <v/>
       </c>
       <c r="AZ6" s="110"/>
       <c r="BA6" s="110"/>
@@ -3867,227 +3867,227 @@
       <c r="H7" s="94"/>
       <c r="I7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="J7" s="117">
         <f ca="1">I7+1</f>
-        <v>44673</v>
+        <v>44680</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44675</v>
+        <v>44682</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44676</v>
+        <v>44683</v>
       </c>
       <c r="N7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44677</v>
+        <v>44684</v>
       </c>
       <c r="O7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44679</v>
+        <v>44686</v>
       </c>
       <c r="Q7" s="117">
         <f ca="1">P7+1</f>
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44689</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44683</v>
+        <v>44690</v>
       </c>
       <c r="U7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="V7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44685</v>
+        <v>44692</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44686</v>
+        <v>44693</v>
       </c>
       <c r="X7" s="117">
         <f ca="1">W7+1</f>
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44688</v>
+        <v>44695</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44689</v>
+        <v>44696</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44690</v>
+        <v>44697</v>
       </c>
       <c r="AB7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="AC7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44692</v>
+        <v>44699</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44693</v>
+        <v>44700</v>
       </c>
       <c r="AE7" s="117">
         <f ca="1">AD7+1</f>
-        <v>44694</v>
+        <v>44701</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44695</v>
+        <v>44702</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44696</v>
+        <v>44703</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44697</v>
+        <v>44704</v>
       </c>
       <c r="AI7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44698</v>
+        <v>44705</v>
       </c>
       <c r="AJ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44699</v>
+        <v>44706</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44700</v>
+        <v>44707</v>
       </c>
       <c r="AL7" s="117">
         <f ca="1">AK7+1</f>
-        <v>44701</v>
+        <v>44708</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44702</v>
+        <v>44709</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44703</v>
+        <v>44710</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44704</v>
+        <v>44711</v>
       </c>
       <c r="AP7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44705</v>
+        <v>44712</v>
       </c>
       <c r="AQ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44706</v>
+        <v>44713</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44707</v>
+        <v>44714</v>
       </c>
       <c r="AS7" s="117">
         <f ca="1">AR7+1</f>
-        <v>44708</v>
+        <v>44715</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44709</v>
+        <v>44716</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44710</v>
+        <v>44717</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44711</v>
+        <v>44718</v>
       </c>
       <c r="AW7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44712</v>
+        <v>44719</v>
       </c>
       <c r="AX7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
       <c r="AY7" s="117">
         <f ca="1">AX7+1</f>
-        <v>44714</v>
+        <v>44721</v>
       </c>
       <c r="AZ7" s="117">
         <f ca="1">AY7+1</f>
-        <v>44715</v>
+        <v>44722</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44716</v>
+        <v>44723</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44717</v>
+        <v>44724</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44725</v>
       </c>
       <c r="BD7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44726</v>
       </c>
       <c r="BE7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44727</v>
       </c>
       <c r="BF7" s="117">
         <f ca="1">BE7+1</f>
-        <v>44721</v>
+        <v>44728</v>
       </c>
       <c r="BG7" s="117">
         <f ca="1">BF7+1</f>
-        <v>44722</v>
+        <v>44729</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44723</v>
+        <v>44730</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44724</v>
+        <v>44731</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44725</v>
+        <v>44732</v>
       </c>
       <c r="BK7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44726</v>
+        <v>44733</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>44727</v>
+        <v>44734</v>
       </c>
       <c r="BM7" s="99"/>
     </row>
@@ -4796,9 +4796,9 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="Z12" s="29" t="str">
+      <c r="Z12" s="29">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA12" s="29" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -4824,9 +4824,9 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG12" s="29">
+      <c r="AG12" s="29" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AH12" s="29" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -5101,9 +5101,9 @@
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AO13" s="29" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
+      <c r="AO13" s="29">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AP13" s="29" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5129,9 +5129,9 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AV13" s="29">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+      <c r="AV13" s="29" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
       </c>
       <c r="AW13" s="29" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5372,9 +5372,9 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AV14" s="29" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
+      <c r="AV14" s="29">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AW14" s="29" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5400,9 +5400,9 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="BC14" s="29">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+      <c r="BC14" s="29" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
       </c>
       <c r="BD14" s="29" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5697,7 +5697,7 @@
         <v>44670</v>
       </c>
       <c r="G16" s="70">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H16" s="103"/>
       <c r="I16" s="29"/>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="F17" s="69">
         <f>F16+G16</f>
-        <v>44675</v>
+        <v>44684</v>
       </c>
       <c r="G17" s="70">
         <v>9</v>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="F18" s="69">
         <f>F16+G16</f>
-        <v>44675</v>
+        <v>44684</v>
       </c>
       <c r="G18" s="70">
         <v>7</v>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="F19" s="69">
         <f>F17+G17</f>
-        <v>44684</v>
+        <v>44693</v>
       </c>
       <c r="G19" s="70">
         <v>3</v>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="F20" s="69">
         <f>F19+G19</f>
-        <v>44687</v>
+        <v>44696</v>
       </c>
       <c r="G20" s="70">
         <v>21</v>
@@ -7248,9 +7248,9 @@
       <c r="E23" s="68">
         <v>0</v>
       </c>
-      <c r="F23" s="160">
+      <c r="F23" s="143">
         <f>F17</f>
-        <v>44675</v>
+        <v>44684</v>
       </c>
       <c r="G23" s="70">
         <v>1</v>
@@ -7496,9 +7496,9 @@
       <c r="E24" s="68">
         <v>0</v>
       </c>
-      <c r="F24" s="160">
+      <c r="F24" s="143">
         <f>F23+G23</f>
-        <v>44676</v>
+        <v>44685</v>
       </c>
       <c r="G24" s="70">
         <v>14</v>
@@ -7744,7 +7744,7 @@
       <c r="E25" s="68">
         <v>0</v>
       </c>
-      <c r="F25" s="160">
+      <c r="F25" s="143">
         <f>F26+G26</f>
         <v>44678</v>
       </c>
@@ -7992,7 +7992,7 @@
       <c r="E26" s="68">
         <v>0</v>
       </c>
-      <c r="F26" s="160">
+      <c r="F26" s="143">
         <v>44673</v>
       </c>
       <c r="G26" s="70">
@@ -8239,9 +8239,9 @@
       <c r="E27" s="68">
         <v>0</v>
       </c>
-      <c r="F27" s="160">
+      <c r="F27" s="143">
         <f>F23+G23</f>
-        <v>44676</v>
+        <v>44685</v>
       </c>
       <c r="G27" s="70">
         <v>1</v>
@@ -8487,7 +8487,7 @@
       <c r="E28" s="68">
         <v>0</v>
       </c>
-      <c r="F28" s="160">
+      <c r="F28" s="143">
         <f>F26</f>
         <v>44673</v>
       </c>
@@ -8747,123 +8747,123 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL18">
-    <cfRule type="expression" dxfId="56" priority="72">
+    <cfRule type="expression" dxfId="72" priority="72">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="55" priority="75">
+    <cfRule type="expression" dxfId="71" priority="75">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="54" priority="74">
+    <cfRule type="expression" dxfId="70" priority="74">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="53" priority="73">
+    <cfRule type="expression" dxfId="69" priority="73">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL18 I21:BL28">
-    <cfRule type="expression" dxfId="52" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="78" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="79" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="80" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="81" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="82" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL19">
-    <cfRule type="expression" dxfId="47" priority="65">
+    <cfRule type="expression" dxfId="63" priority="65">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL19">
-    <cfRule type="expression" dxfId="46" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="66" stopIfTrue="1">
       <formula>AND($C19="Low Risk",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="67" stopIfTrue="1">
       <formula>AND($C19="High Risk",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="68" stopIfTrue="1">
       <formula>AND($C19="On Track",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="69" stopIfTrue="1">
       <formula>AND($C19="Med Risk",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="70" stopIfTrue="1">
       <formula>AND(LEN($C19)=0,I$7&gt;=$F19,I$7&lt;=$F19+$G19-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:BL20">
-    <cfRule type="expression" dxfId="41" priority="58">
+    <cfRule type="expression" dxfId="57" priority="58">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:BL20">
-    <cfRule type="expression" dxfId="40" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="59" stopIfTrue="1">
       <formula>AND($C20="Low Risk",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="60" stopIfTrue="1">
       <formula>AND($C20="High Risk",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="61" stopIfTrue="1">
       <formula>AND($C20="On Track",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="62" stopIfTrue="1">
       <formula>AND($C20="Med Risk",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="63" stopIfTrue="1">
       <formula>AND(LEN($C20)=0,I$7&gt;=$F20,I$7&lt;=$F20+$G20-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BL21">
-    <cfRule type="expression" dxfId="35" priority="51">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="34" priority="44">
+    <cfRule type="expression" dxfId="50" priority="44">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:BL23">
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="49" priority="36">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="48" priority="29">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="47" priority="22">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL26">
-    <cfRule type="expression" dxfId="30" priority="15">
+    <cfRule type="expression" dxfId="46" priority="15">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="29" priority="8">
+    <cfRule type="expression" dxfId="45" priority="8">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9185,27 +9185,27 @@
     <row r="1" spans="1:68" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -9332,40 +9332,40 @@
         <v>18</v>
       </c>
       <c r="H4" s="32"/>
-      <c r="I4" s="150" t="s">
+      <c r="I4" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="151" t="s">
+      <c r="N4" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="152" t="s">
+      <c r="S4" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
+      <c r="T4" s="153"/>
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
       <c r="W4" s="35"/>
-      <c r="X4" s="145" t="s">
+      <c r="X4" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="145"/>
-      <c r="Z4" s="145"/>
-      <c r="AA4" s="145"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="146"/>
+      <c r="AA4" s="146"/>
       <c r="AB4" s="35"/>
-      <c r="AC4" s="146" t="s">
+      <c r="AC4" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="146"/>
-      <c r="AE4" s="146"/>
-      <c r="AF4" s="146"/>
+      <c r="AD4" s="147"/>
+      <c r="AE4" s="147"/>
+      <c r="AF4" s="147"/>
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="C6" s="39" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Start])=0,TODAY(),B11(Milestones435[Start])),TODAY())</f>
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="35"/>
@@ -9495,7 +9495,7 @@
       <c r="O6" s="112"/>
       <c r="P6" s="112" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v/>
+        <v>May</v>
       </c>
       <c r="Q6" s="112"/>
       <c r="R6" s="112"/>
@@ -9505,7 +9505,7 @@
       <c r="V6" s="112"/>
       <c r="W6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v>May</v>
+        <v/>
       </c>
       <c r="X6" s="112"/>
       <c r="Y6" s="112"/>
@@ -9535,7 +9535,7 @@
       <c r="AQ6" s="112"/>
       <c r="AR6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v/>
+        <v>June</v>
       </c>
       <c r="AS6" s="112"/>
       <c r="AT6" s="112"/>
@@ -9545,7 +9545,7 @@
       <c r="AX6" s="112"/>
       <c r="AY6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>June</v>
+        <v/>
       </c>
       <c r="AZ6" s="112"/>
       <c r="BA6" s="112"/>
@@ -9580,227 +9580,227 @@
       <c r="H7" s="38"/>
       <c r="I7" s="114">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44673</v>
+        <v>44680</v>
       </c>
       <c r="J7" s="19">
         <f ca="1">I7+1</f>
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="K7" s="19">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44675</v>
+        <v>44682</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44676</v>
+        <v>44683</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44677</v>
+        <v>44684</v>
       </c>
       <c r="N7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="O7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44679</v>
+        <v>44686</v>
       </c>
       <c r="P7" s="19">
         <f ca="1">O7+1</f>
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="Q7" s="19">
         <f ca="1">P7+1</f>
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44689</v>
       </c>
       <c r="S7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44683</v>
+        <v>44690</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44685</v>
+        <v>44692</v>
       </c>
       <c r="V7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44686</v>
+        <v>44693</v>
       </c>
       <c r="W7" s="19">
         <f ca="1">V7+1</f>
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="X7" s="19">
         <f ca="1">W7+1</f>
-        <v>44688</v>
+        <v>44695</v>
       </c>
       <c r="Y7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44689</v>
+        <v>44696</v>
       </c>
       <c r="Z7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44690</v>
+        <v>44697</v>
       </c>
       <c r="AA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="AB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44692</v>
+        <v>44699</v>
       </c>
       <c r="AC7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44693</v>
+        <v>44700</v>
       </c>
       <c r="AD7" s="19">
         <f ca="1">AC7+1</f>
-        <v>44694</v>
+        <v>44701</v>
       </c>
       <c r="AE7" s="19">
         <f ca="1">AD7+1</f>
-        <v>44695</v>
+        <v>44702</v>
       </c>
       <c r="AF7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44696</v>
+        <v>44703</v>
       </c>
       <c r="AG7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44697</v>
+        <v>44704</v>
       </c>
       <c r="AH7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44698</v>
+        <v>44705</v>
       </c>
       <c r="AI7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44699</v>
+        <v>44706</v>
       </c>
       <c r="AJ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44700</v>
+        <v>44707</v>
       </c>
       <c r="AK7" s="19">
         <f ca="1">AJ7+1</f>
-        <v>44701</v>
+        <v>44708</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">AK7+1</f>
-        <v>44702</v>
+        <v>44709</v>
       </c>
       <c r="AM7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44703</v>
+        <v>44710</v>
       </c>
       <c r="AN7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44704</v>
+        <v>44711</v>
       </c>
       <c r="AO7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44705</v>
+        <v>44712</v>
       </c>
       <c r="AP7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44706</v>
+        <v>44713</v>
       </c>
       <c r="AQ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44707</v>
+        <v>44714</v>
       </c>
       <c r="AR7" s="19">
         <f ca="1">AQ7+1</f>
-        <v>44708</v>
+        <v>44715</v>
       </c>
       <c r="AS7" s="19">
         <f ca="1">AR7+1</f>
-        <v>44709</v>
+        <v>44716</v>
       </c>
       <c r="AT7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44710</v>
+        <v>44717</v>
       </c>
       <c r="AU7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44711</v>
+        <v>44718</v>
       </c>
       <c r="AV7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44712</v>
+        <v>44719</v>
       </c>
       <c r="AW7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
       <c r="AX7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44714</v>
+        <v>44721</v>
       </c>
       <c r="AY7" s="19">
         <f ca="1">AX7+1</f>
-        <v>44715</v>
+        <v>44722</v>
       </c>
       <c r="AZ7" s="19">
         <f ca="1">AY7+1</f>
-        <v>44716</v>
+        <v>44723</v>
       </c>
       <c r="BA7" s="19">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44717</v>
+        <v>44724</v>
       </c>
       <c r="BB7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44725</v>
       </c>
       <c r="BC7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44726</v>
       </c>
       <c r="BD7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44727</v>
       </c>
       <c r="BE7" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>44721</v>
+        <v>44728</v>
       </c>
       <c r="BF7" s="19">
         <f ca="1">BE7+1</f>
-        <v>44722</v>
+        <v>44729</v>
       </c>
       <c r="BG7" s="19">
         <f ca="1">BF7+1</f>
-        <v>44723</v>
+        <v>44730</v>
       </c>
       <c r="BH7" s="19">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44724</v>
+        <v>44731</v>
       </c>
       <c r="BI7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44725</v>
+        <v>44732</v>
       </c>
       <c r="BJ7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44726</v>
+        <v>44733</v>
       </c>
       <c r="BK7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44727</v>
+        <v>44734</v>
       </c>
       <c r="BL7" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>44728</v>
+        <v>44735</v>
       </c>
       <c r="BM7" s="35"/>
     </row>
@@ -10438,7 +10438,7 @@
       </c>
       <c r="F12" s="26">
         <f ca="1">TODAY()</f>
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="G12" s="27">
         <v>3</v>
@@ -10682,7 +10682,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26">
         <f ca="1">TODAY()+5</f>
-        <v>44677</v>
+        <v>44684</v>
       </c>
       <c r="G13" s="27">
         <v>1</v>
@@ -10928,7 +10928,7 @@
       </c>
       <c r="F14" s="26">
         <f ca="1">F12-3</f>
-        <v>44669</v>
+        <v>44676</v>
       </c>
       <c r="G14" s="27">
         <v>10</v>
@@ -11172,7 +11172,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="26">
         <f ca="1">F12+20</f>
-        <v>44692</v>
+        <v>44699</v>
       </c>
       <c r="G15" s="27">
         <v>1</v>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="F16" s="26">
         <f ca="1">F12+6</f>
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="G16" s="27">
         <v>6</v>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="F18" s="26">
         <f ca="1">F12+6</f>
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="G18" s="27">
         <v>13</v>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="F19" s="26">
         <f ca="1">F18+2</f>
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="G19" s="27">
         <v>9</v>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="F20" s="26">
         <f ca="1">F19+5</f>
-        <v>44685</v>
+        <v>44692</v>
       </c>
       <c r="G20" s="27">
         <v>11</v>
@@ -12637,7 +12637,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26">
         <f ca="1">F20+2</f>
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="G21" s="27">
         <v>1</v>
@@ -12879,7 +12879,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="26">
         <f ca="1">F21+1</f>
-        <v>44688</v>
+        <v>44695</v>
       </c>
       <c r="G22" s="27">
         <v>24</v>
@@ -13360,7 +13360,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="26">
         <f ca="1">F12+15</f>
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="G24" s="27">
         <v>4</v>
@@ -13604,7 +13604,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="26">
         <f ca="1">F24+3</f>
-        <v>44690</v>
+        <v>44697</v>
       </c>
       <c r="G25" s="27">
         <v>14</v>
@@ -13848,7 +13848,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26">
         <f ca="1">F25+15</f>
-        <v>44705</v>
+        <v>44712</v>
       </c>
       <c r="G26" s="27">
         <v>6</v>
@@ -14092,7 +14092,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="26">
         <f ca="1">F21+22</f>
-        <v>44709</v>
+        <v>44716</v>
       </c>
       <c r="G27" s="27">
         <v>3</v>
@@ -14336,7 +14336,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26">
         <f ca="1">F16</f>
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="G28" s="27">
         <v>19</v>
@@ -14815,7 +14815,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="26">
         <f ca="1">F27+3</f>
-        <v>44712</v>
+        <v>44719</v>
       </c>
       <c r="G30" s="27">
         <v>15</v>
@@ -15057,7 +15057,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="26">
         <f ca="1">F30+14</f>
-        <v>44726</v>
+        <v>44733</v>
       </c>
       <c r="G31" s="27">
         <v>5</v>
@@ -15301,7 +15301,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="26">
         <f ca="1">F31+42</f>
-        <v>44768</v>
+        <v>44775</v>
       </c>
       <c r="G32" s="27">
         <v>1</v>
@@ -16345,56 +16345,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16547,27 +16547,27 @@
     <row r="1" spans="1:68" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
       <c r="U2" s="115"/>
       <c r="V2" s="115"/>
       <c r="W2" s="115"/>
@@ -16694,40 +16694,40 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="150" t="s">
+      <c r="I4" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="151" t="s">
+      <c r="N4" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="152" t="s">
+      <c r="S4" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
+      <c r="T4" s="153"/>
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
       <c r="W4" s="99"/>
-      <c r="X4" s="145" t="s">
+      <c r="X4" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="145"/>
-      <c r="Z4" s="145"/>
-      <c r="AA4" s="145"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="146"/>
+      <c r="AA4" s="146"/>
       <c r="AB4" s="99"/>
-      <c r="AC4" s="146" t="s">
+      <c r="AC4" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="146"/>
-      <c r="AE4" s="146"/>
-      <c r="AF4" s="146"/>
+      <c r="AD4" s="147"/>
+      <c r="AE4" s="147"/>
+      <c r="AF4" s="147"/>
       <c r="AG4" s="99"/>
       <c r="AH4" s="99"/>
       <c r="AI4" s="99"/>
@@ -16838,7 +16838,7 @@
       </c>
       <c r="C6" s="90" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="84"/>
@@ -16847,7 +16847,7 @@
       <c r="H6" s="84"/>
       <c r="I6" s="109" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>April</v>
+        <v>May</v>
       </c>
       <c r="J6" s="109"/>
       <c r="K6" s="109"/>
@@ -16857,7 +16857,7 @@
       <c r="O6" s="109"/>
       <c r="P6" s="109" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v>May</v>
+        <v/>
       </c>
       <c r="Q6" s="109"/>
       <c r="R6" s="109"/>
@@ -16897,7 +16897,7 @@
       <c r="AQ6" s="109"/>
       <c r="AR6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v/>
+        <v>June</v>
       </c>
       <c r="AS6" s="109"/>
       <c r="AT6" s="109"/>
@@ -16907,7 +16907,7 @@
       <c r="AX6" s="110"/>
       <c r="AY6" s="110" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>June</v>
+        <v/>
       </c>
       <c r="AZ6" s="110"/>
       <c r="BA6" s="110"/>
@@ -16942,227 +16942,227 @@
       <c r="H7" s="94"/>
       <c r="I7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44677</v>
+        <v>44684</v>
       </c>
       <c r="J7" s="117">
         <f ca="1">I7+1</f>
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44679</v>
+        <v>44686</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="N7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44689</v>
       </c>
       <c r="O7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44683</v>
+        <v>44690</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="Q7" s="117">
         <f ca="1">P7+1</f>
-        <v>44685</v>
+        <v>44692</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44686</v>
+        <v>44693</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44688</v>
+        <v>44695</v>
       </c>
       <c r="U7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44689</v>
+        <v>44696</v>
       </c>
       <c r="V7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44690</v>
+        <v>44697</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="X7" s="117">
         <f ca="1">W7+1</f>
-        <v>44692</v>
+        <v>44699</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44693</v>
+        <v>44700</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44694</v>
+        <v>44701</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44695</v>
+        <v>44702</v>
       </c>
       <c r="AB7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44696</v>
+        <v>44703</v>
       </c>
       <c r="AC7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44697</v>
+        <v>44704</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44698</v>
+        <v>44705</v>
       </c>
       <c r="AE7" s="117">
         <f ca="1">AD7+1</f>
-        <v>44699</v>
+        <v>44706</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44700</v>
+        <v>44707</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44701</v>
+        <v>44708</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44702</v>
+        <v>44709</v>
       </c>
       <c r="AI7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44703</v>
+        <v>44710</v>
       </c>
       <c r="AJ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44704</v>
+        <v>44711</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44705</v>
+        <v>44712</v>
       </c>
       <c r="AL7" s="117">
         <f ca="1">AK7+1</f>
-        <v>44706</v>
+        <v>44713</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44707</v>
+        <v>44714</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44708</v>
+        <v>44715</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44709</v>
+        <v>44716</v>
       </c>
       <c r="AP7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44710</v>
+        <v>44717</v>
       </c>
       <c r="AQ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44711</v>
+        <v>44718</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44712</v>
+        <v>44719</v>
       </c>
       <c r="AS7" s="117">
         <f ca="1">AR7+1</f>
-        <v>44713</v>
+        <v>44720</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44714</v>
+        <v>44721</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44715</v>
+        <v>44722</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44716</v>
+        <v>44723</v>
       </c>
       <c r="AW7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44717</v>
+        <v>44724</v>
       </c>
       <c r="AX7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44718</v>
+        <v>44725</v>
       </c>
       <c r="AY7" s="117">
         <f ca="1">AX7+1</f>
-        <v>44719</v>
+        <v>44726</v>
       </c>
       <c r="AZ7" s="117">
         <f ca="1">AY7+1</f>
-        <v>44720</v>
+        <v>44727</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44721</v>
+        <v>44728</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44722</v>
+        <v>44729</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44730</v>
       </c>
       <c r="BD7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44724</v>
+        <v>44731</v>
       </c>
       <c r="BE7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44725</v>
+        <v>44732</v>
       </c>
       <c r="BF7" s="117">
         <f ca="1">BE7+1</f>
-        <v>44726</v>
+        <v>44733</v>
       </c>
       <c r="BG7" s="117">
         <f ca="1">BF7+1</f>
-        <v>44727</v>
+        <v>44734</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44728</v>
+        <v>44735</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44729</v>
+        <v>44736</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44730</v>
+        <v>44737</v>
       </c>
       <c r="BK7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44731</v>
+        <v>44738</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>44732</v>
+        <v>44739</v>
       </c>
       <c r="BM7" s="99"/>
     </row>
@@ -17800,7 +17800,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -18044,7 +18044,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44677</v>
+        <v>44684</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -18290,7 +18290,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44669</v>
+        <v>44676</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -18534,7 +18534,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44692</v>
+        <v>44699</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -19263,7 +19263,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="G18" s="70">
         <v>13</v>
@@ -19509,7 +19509,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="G19" s="70">
         <v>9</v>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44685</v>
+        <v>44692</v>
       </c>
       <c r="G20" s="70">
         <v>11</v>
@@ -19999,7 +19999,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
@@ -20241,7 +20241,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44688</v>
+        <v>44695</v>
       </c>
       <c r="G22" s="70">
         <v>24</v>
@@ -20722,7 +20722,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
@@ -20966,7 +20966,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44690</v>
+        <v>44697</v>
       </c>
       <c r="G25" s="70">
         <v>14</v>
@@ -21210,7 +21210,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44705</v>
+        <v>44712</v>
       </c>
       <c r="G26" s="70">
         <v>6</v>
@@ -21454,7 +21454,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44709</v>
+        <v>44716</v>
       </c>
       <c r="G27" s="70">
         <v>3</v>
@@ -21698,7 +21698,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="G28" s="70">
         <v>19</v>
@@ -22177,7 +22177,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="69">
         <f ca="1">F27+3</f>
-        <v>44712</v>
+        <v>44719</v>
       </c>
       <c r="G30" s="70">
         <v>15</v>
@@ -22419,7 +22419,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="69">
         <f ca="1">F30+14</f>
-        <v>44726</v>
+        <v>44733</v>
       </c>
       <c r="G31" s="70">
         <v>5</v>
@@ -22663,7 +22663,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="69">
         <f ca="1">F31+42</f>
-        <v>44768</v>
+        <v>44775</v>
       </c>
       <c r="G32" s="70">
         <v>1</v>
@@ -23707,56 +23707,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23883,6 +23883,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24158,15 +24167,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -24187,6 +24187,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24207,14 +24215,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
